--- a/notebooks/dataframe_input.xlsx
+++ b/notebooks/dataframe_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\chris_nill\code\RouvErn\PlatePerfect\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46D2B5-39B9-467B-BE2B-92085102E7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DB6C6-122E-445D-B0BE-4DE237A8F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14ABF6AB-257C-4B50-87BB-8D006EBA001A}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,8 +529,8 @@
         <v>3</v>
       </c>
       <c r="B2" t="str">
-        <f>"\"&amp;A2&amp;"\rgb.png"</f>
-        <v>\dish_1556572657\rgb.png</v>
+        <f>A2&amp;"/rgb.png"</f>
+        <v>dish_1556572657/rgb.png</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -543,8 +543,8 @@
         <v>5</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B11" si="0">"\"&amp;A3&amp;"\rgb.png"</f>
-        <v>\dish_1556573514\rgb.png</v>
+        <f t="shared" ref="B3:B11" si="0">A3&amp;"/rgb.png"</f>
+        <v>dish_1556573514/rgb.png</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1556575014\rgb.png</v>
+        <v>dish_1556575014/rgb.png</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1556575083\rgb.png</v>
+        <v>dish_1556575083/rgb.png</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1556575124\rgb.png</v>
+        <v>dish_1556575124/rgb.png</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -599,7 +599,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1561737271\rgb.png</v>
+        <v>dish_1561737271/rgb.png</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1561737293\rgb.png</v>
+        <v>dish_1561737293/rgb.png</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1561737776\rgb.png</v>
+        <v>dish_1561737776/rgb.png</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1561737839\rgb.png</v>
+        <v>dish_1561737839/rgb.png</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -684,7 +684,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>\dish_1561739160\rgb.png</v>
+        <v>dish_1561739160/rgb.png</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
